--- a/dnaplot/data/dna_designs.xlsx
+++ b/dnaplot/data/dna_designs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1060" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
